--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>begins</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>PEX10</t>
+  </si>
+  <si>
+    <t>cg23256579</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +461,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -472,10 +475,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -486,10 +489,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -500,10 +503,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -514,7 +517,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -528,15 +531,29 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>begins</t>
   </si>
@@ -36,40 +36,25 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg01620164</t>
-  </si>
-  <si>
-    <t>FIGN</t>
-  </si>
-  <si>
-    <t>cg14079463</t>
-  </si>
-  <si>
-    <t>C6orf174</t>
-  </si>
-  <si>
-    <t>cg17076667</t>
-  </si>
-  <si>
-    <t>BAG3</t>
-  </si>
-  <si>
-    <t>cg27615582</t>
-  </si>
-  <si>
-    <t>PRR4</t>
-  </si>
-  <si>
-    <t>cg04580344</t>
-  </si>
-  <si>
-    <t>cg23928726</t>
-  </si>
-  <si>
-    <t>PEX10</t>
-  </si>
-  <si>
-    <t>cg23256579</t>
+    <t>cg16867657</t>
+  </si>
+  <si>
+    <t>ELOVL2</t>
+  </si>
+  <si>
+    <t>cg06639320</t>
+  </si>
+  <si>
+    <t>FHL2</t>
+  </si>
+  <si>
+    <t>cg22454769</t>
+  </si>
+  <si>
+    <t>cg21572722</t>
+  </si>
+  <si>
+    <t>cg24079702</t>
   </si>
 </sst>
 </file>
@@ -437,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +446,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -475,10 +460,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -489,7 +474,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -503,7 +488,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -517,43 +502,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\dna-methylation\dna-methylation\scripts\develop\illumina450k\betas\plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dna-methylation\dna-methylation\scripts\develop\illumina450k\betas\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348719A4-6741-4AF2-97AB-AEB443E23D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16695" yWindow="8865" windowWidth="16230" windowHeight="9045"/>
+    <workbookView xWindow="14865" yWindow="6300" windowWidth="16185" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>begins</t>
   </si>
@@ -36,31 +37,37 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg16867657</t>
-  </si>
-  <si>
-    <t>ELOVL2</t>
-  </si>
-  <si>
-    <t>cg06639320</t>
-  </si>
-  <si>
-    <t>FHL2</t>
-  </si>
-  <si>
-    <t>cg22454769</t>
-  </si>
-  <si>
-    <t>cg21572722</t>
-  </si>
-  <si>
-    <t>cg24079702</t>
+    <t>cg21922223</t>
+  </si>
+  <si>
+    <t>cg23719692</t>
+  </si>
+  <si>
+    <t>cg10678427</t>
+  </si>
+  <si>
+    <t>cg11189107</t>
+  </si>
+  <si>
+    <t>cg01877778</t>
+  </si>
+  <si>
+    <t>non-genic</t>
+  </si>
+  <si>
+    <t>AGAP1</t>
+  </si>
+  <si>
+    <t>CTSG</t>
+  </si>
+  <si>
+    <t>PTPRN2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,6 +218,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -246,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -460,10 +501,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -477,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -488,10 +529,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -502,10 +543,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
   <si>
     <t>begins</t>
   </si>
@@ -36,25 +36,460 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg16867657</t>
-  </si>
-  <si>
-    <t>ELOVL2</t>
-  </si>
-  <si>
-    <t>cg06639320</t>
-  </si>
-  <si>
-    <t>FHL2</t>
-  </si>
-  <si>
-    <t>cg22454769</t>
-  </si>
-  <si>
-    <t>cg21572722</t>
-  </si>
-  <si>
-    <t>cg24079702</t>
+    <t>UGDH</t>
+  </si>
+  <si>
+    <t>PPFIA3</t>
+  </si>
+  <si>
+    <t>FIGN</t>
+  </si>
+  <si>
+    <t>ZNF16</t>
+  </si>
+  <si>
+    <t>C1orf103</t>
+  </si>
+  <si>
+    <t>ISOC2</t>
+  </si>
+  <si>
+    <t>PRR4</t>
+  </si>
+  <si>
+    <t>cg25452172</t>
+  </si>
+  <si>
+    <t>cg03298305</t>
+  </si>
+  <si>
+    <t>cg12611527</t>
+  </si>
+  <si>
+    <t>cg23250574</t>
+  </si>
+  <si>
+    <t>cg13346869</t>
+  </si>
+  <si>
+    <t>cg08035323</t>
+  </si>
+  <si>
+    <t>cg11331556</t>
+  </si>
+  <si>
+    <t>cg12052203</t>
+  </si>
+  <si>
+    <t>cg06225979</t>
+  </si>
+  <si>
+    <t>cg25294185</t>
+  </si>
+  <si>
+    <t>cg00167275</t>
+  </si>
+  <si>
+    <t>cg22563390</t>
+  </si>
+  <si>
+    <t>cg12900929</t>
+  </si>
+  <si>
+    <t>cg12900170</t>
+  </si>
+  <si>
+    <t>cg14373579</t>
+  </si>
+  <si>
+    <t>cg08037478</t>
+  </si>
+  <si>
+    <t>cg07004386</t>
+  </si>
+  <si>
+    <t>cg13475732</t>
+  </si>
+  <si>
+    <t>cg03687700</t>
+  </si>
+  <si>
+    <t>cg16318112</t>
+  </si>
+  <si>
+    <t>cg23256579</t>
+  </si>
+  <si>
+    <t>cg02394686</t>
+  </si>
+  <si>
+    <t>cg04580344</t>
+  </si>
+  <si>
+    <t>cg01065780</t>
+  </si>
+  <si>
+    <t>cg12740757</t>
+  </si>
+  <si>
+    <t>cg08034535</t>
+  </si>
+  <si>
+    <t>cg23778841</t>
+  </si>
+  <si>
+    <t>cg16383222</t>
+  </si>
+  <si>
+    <t>cg04946709</t>
+  </si>
+  <si>
+    <t>cg07628841</t>
+  </si>
+  <si>
+    <t>cg08615596</t>
+  </si>
+  <si>
+    <t>cg01882150</t>
+  </si>
+  <si>
+    <t>cg27615582</t>
+  </si>
+  <si>
+    <t>cg12204423</t>
+  </si>
+  <si>
+    <t>cg17561891</t>
+  </si>
+  <si>
+    <t>cg01413005</t>
+  </si>
+  <si>
+    <t>cg07816873</t>
+  </si>
+  <si>
+    <t>cg04055615</t>
+  </si>
+  <si>
+    <t>cg10563109</t>
+  </si>
+  <si>
+    <t>cg17292758</t>
+  </si>
+  <si>
+    <t>cg11388673</t>
+  </si>
+  <si>
+    <t>cg09404617</t>
+  </si>
+  <si>
+    <t>cg23890282</t>
+  </si>
+  <si>
+    <t>cg06962442</t>
+  </si>
+  <si>
+    <t>cg02908189</t>
+  </si>
+  <si>
+    <t>cg22735601</t>
+  </si>
+  <si>
+    <t>cg11574745</t>
+  </si>
+  <si>
+    <t>cg06644124</t>
+  </si>
+  <si>
+    <t>cg10739556</t>
+  </si>
+  <si>
+    <t>cg22999268</t>
+  </si>
+  <si>
+    <t>cg07586008</t>
+  </si>
+  <si>
+    <t>cg14079463</t>
+  </si>
+  <si>
+    <t>cg03894796</t>
+  </si>
+  <si>
+    <t>cg01225095</t>
+  </si>
+  <si>
+    <t>cg22266749</t>
+  </si>
+  <si>
+    <t>cg21120539</t>
+  </si>
+  <si>
+    <t>cg09067967</t>
+  </si>
+  <si>
+    <t>cg25438440</t>
+  </si>
+  <si>
+    <t>cg03151810</t>
+  </si>
+  <si>
+    <t>cg24920126</t>
+  </si>
+  <si>
+    <t>cg21784396</t>
+  </si>
+  <si>
+    <t>cg23928726</t>
+  </si>
+  <si>
+    <t>cg12736438</t>
+  </si>
+  <si>
+    <t>cg17076667</t>
+  </si>
+  <si>
+    <t>cg11092486</t>
+  </si>
+  <si>
+    <t>cg07170752</t>
+  </si>
+  <si>
+    <t>cg27544294</t>
+  </si>
+  <si>
+    <t>cg15817705</t>
+  </si>
+  <si>
+    <t>cg07381872</t>
+  </si>
+  <si>
+    <t>cg06710937</t>
+  </si>
+  <si>
+    <t>cg09971754</t>
+  </si>
+  <si>
+    <t>cg03405128</t>
+  </si>
+  <si>
+    <t>cg01906879</t>
+  </si>
+  <si>
+    <t>cg17743279</t>
+  </si>
+  <si>
+    <t>cg25742246</t>
+  </si>
+  <si>
+    <t>cg09846458</t>
+  </si>
+  <si>
+    <t>cg22345911</t>
+  </si>
+  <si>
+    <t>cg26213873</t>
+  </si>
+  <si>
+    <t>cg21144120</t>
+  </si>
+  <si>
+    <t>cg09725915</t>
+  </si>
+  <si>
+    <t>cg05812269</t>
+  </si>
+  <si>
+    <t>cg08063724</t>
+  </si>
+  <si>
+    <t>cg11065518</t>
+  </si>
+  <si>
+    <t>cg01620164</t>
+  </si>
+  <si>
+    <t>cg12614789</t>
+  </si>
+  <si>
+    <t>cg04829993</t>
+  </si>
+  <si>
+    <t>cg20111643</t>
+  </si>
+  <si>
+    <t>cg12611723</t>
+  </si>
+  <si>
+    <t>cg13546935</t>
+  </si>
+  <si>
+    <t>cg05928806</t>
+  </si>
+  <si>
+    <t>cg24016844</t>
+  </si>
+  <si>
+    <t>cg12006399</t>
+  </si>
+  <si>
+    <t>cg12195369</t>
+  </si>
+  <si>
+    <t>MACROD1</t>
+  </si>
+  <si>
+    <t>PHF17</t>
+  </si>
+  <si>
+    <t>C7orf23</t>
+  </si>
+  <si>
+    <t>BAT2L2</t>
+  </si>
+  <si>
+    <t>ERC1</t>
+  </si>
+  <si>
+    <t>DDAH2</t>
+  </si>
+  <si>
+    <t>C6orf174</t>
+  </si>
+  <si>
+    <t>LEMD2</t>
+  </si>
+  <si>
+    <t>HSP90AB2P</t>
+  </si>
+  <si>
+    <t>COX7C</t>
+  </si>
+  <si>
+    <t>MTMR12</t>
+  </si>
+  <si>
+    <t>PPP1R3G</t>
+  </si>
+  <si>
+    <t>ZNF281</t>
+  </si>
+  <si>
+    <t>ZNF396</t>
+  </si>
+  <si>
+    <t>ZMYM2</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>YARS2</t>
+  </si>
+  <si>
+    <t>COL25A1</t>
+  </si>
+  <si>
+    <t>METTL1</t>
+  </si>
+  <si>
+    <t>RAB33B</t>
+  </si>
+  <si>
+    <t>CTSZ</t>
+  </si>
+  <si>
+    <t>CLDND1</t>
+  </si>
+  <si>
+    <t>PRRT4</t>
+  </si>
+  <si>
+    <t>CYHR1</t>
+  </si>
+  <si>
+    <t>PEX10</t>
+  </si>
+  <si>
+    <t>RAB20</t>
+  </si>
+  <si>
+    <t>CCDC121;GPN1</t>
+  </si>
+  <si>
+    <t>LOC728024;ERLIN2</t>
+  </si>
+  <si>
+    <t>BAG3</t>
+  </si>
+  <si>
+    <t>DNAH14</t>
+  </si>
+  <si>
+    <t>FKBP1B</t>
+  </si>
+  <si>
+    <t>ANKRD11</t>
+  </si>
+  <si>
+    <t>GBE1</t>
+  </si>
+  <si>
+    <t>CDK6</t>
+  </si>
+  <si>
+    <t>AGRN</t>
+  </si>
+  <si>
+    <t>LOC644649</t>
+  </si>
+  <si>
+    <t>PRDM4</t>
+  </si>
+  <si>
+    <t>CSNK1D</t>
+  </si>
+  <si>
+    <t>CTTNBP2NL</t>
+  </si>
+  <si>
+    <t>B3GNT1</t>
+  </si>
+  <si>
+    <t>RIOK3</t>
+  </si>
+  <si>
+    <t>MYCL1</t>
+  </si>
+  <si>
+    <t>RNASEH2C</t>
+  </si>
+  <si>
+    <t>FASTKD2;MDH1B</t>
+  </si>
+  <si>
+    <t>FUBP3;LOC100272217</t>
+  </si>
+  <si>
+    <t>TFDP1</t>
+  </si>
+  <si>
+    <t>COL13A1</t>
+  </si>
+  <si>
+    <t>TOM1L1</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>NPDC1</t>
+  </si>
+  <si>
+    <t>GLUD1;FAM35A</t>
+  </si>
+  <si>
+    <t>SPDYA</t>
   </si>
 </sst>
 </file>
@@ -422,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D2" sqref="D2:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +881,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -460,10 +892,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -474,10 +906,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -488,10 +920,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -502,15 +934,1178 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>begins</t>
   </si>
@@ -36,109 +36,55 @@
     <t>auto</t>
   </si>
   <si>
-    <t>ZNF16</t>
-  </si>
-  <si>
-    <t>C1orf103</t>
-  </si>
-  <si>
-    <t>ISOC2</t>
-  </si>
-  <si>
-    <t>cg03298305</t>
-  </si>
-  <si>
-    <t>cg12611527</t>
-  </si>
-  <si>
-    <t>cg01065780</t>
-  </si>
-  <si>
-    <t>cg08615596</t>
-  </si>
-  <si>
-    <t>cg01882150</t>
-  </si>
-  <si>
-    <t>cg04055615</t>
-  </si>
-  <si>
-    <t>cg23890282</t>
-  </si>
-  <si>
-    <t>cg06962442</t>
-  </si>
-  <si>
-    <t>cg02908189</t>
-  </si>
-  <si>
-    <t>cg22735601</t>
-  </si>
-  <si>
-    <t>cg25438440</t>
-  </si>
-  <si>
-    <t>cg12736438</t>
-  </si>
-  <si>
-    <t>cg07170752</t>
-  </si>
-  <si>
-    <t>cg09971754</t>
-  </si>
-  <si>
-    <t>cg01906879</t>
-  </si>
-  <si>
-    <t>cg17743279</t>
-  </si>
-  <si>
-    <t>cg09846458</t>
-  </si>
-  <si>
-    <t>cg26213873</t>
-  </si>
-  <si>
-    <t>cg09725915</t>
-  </si>
-  <si>
-    <t>cg24016844</t>
-  </si>
-  <si>
-    <t>MACROD1</t>
-  </si>
-  <si>
-    <t>DDAH2</t>
-  </si>
-  <si>
-    <t>LEMD2</t>
-  </si>
-  <si>
-    <t>HSP90AB2P</t>
-  </si>
-  <si>
-    <t>CLDND1</t>
-  </si>
-  <si>
-    <t>RAB20</t>
-  </si>
-  <si>
-    <t>DNAH14</t>
-  </si>
-  <si>
-    <t>ANKRD11</t>
-  </si>
-  <si>
-    <t>GBE1</t>
-  </si>
-  <si>
-    <t>CDK6</t>
-  </si>
-  <si>
-    <t>CTTNBP2NL</t>
-  </si>
-  <si>
-    <t>MB</t>
+    <t>cg10242160</t>
+  </si>
+  <si>
+    <t>cg18933331</t>
+  </si>
+  <si>
+    <t>cg11807280</t>
+  </si>
+  <si>
+    <t>cg24125828</t>
+  </si>
+  <si>
+    <t>cg12899747</t>
+  </si>
+  <si>
+    <t>cg16960758</t>
+  </si>
+  <si>
+    <t>cg00387658</t>
+  </si>
+  <si>
+    <t>cg24350475</t>
+  </si>
+  <si>
+    <t>cg18473521</t>
+  </si>
+  <si>
+    <t>cg14614094</t>
+  </si>
+  <si>
+    <t>ZAR1</t>
+  </si>
+  <si>
+    <t>PRRT1</t>
+  </si>
+  <si>
+    <t>KIAA1462</t>
+  </si>
+  <si>
+    <t>EXOSC2</t>
+  </si>
+  <si>
+    <t>CASS4</t>
+  </si>
+  <si>
+    <t>NOSTRIN</t>
+  </si>
+  <si>
+    <t>HOXC4</t>
   </si>
 </sst>
 </file>
@@ -506,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +476,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -541,10 +490,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -555,10 +501,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -569,10 +512,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -583,10 +526,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -597,10 +537,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -611,10 +551,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -625,10 +565,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -639,7 +579,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -650,153 +593,20 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>begins</t>
   </si>
@@ -36,62 +36,50 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg10242160</t>
-  </si>
-  <si>
-    <t>cg18933331</t>
-  </si>
-  <si>
-    <t>cg11807280</t>
-  </si>
-  <si>
-    <t>cg24125828</t>
-  </si>
-  <si>
-    <t>cg12899747</t>
-  </si>
-  <si>
-    <t>cg16960758</t>
-  </si>
-  <si>
-    <t>cg00387658</t>
-  </si>
-  <si>
-    <t>cg24350475</t>
-  </si>
-  <si>
-    <t>cg18473521</t>
-  </si>
-  <si>
-    <t>cg14614094</t>
-  </si>
-  <si>
-    <t>ZAR1</t>
-  </si>
-  <si>
-    <t>PRRT1</t>
-  </si>
-  <si>
-    <t>KIAA1462</t>
-  </si>
-  <si>
-    <t>EXOSC2</t>
-  </si>
-  <si>
-    <t>CASS4</t>
-  </si>
-  <si>
-    <t>NOSTRIN</t>
-  </si>
-  <si>
-    <t>HOXC4</t>
+    <t>cg25773262</t>
+  </si>
+  <si>
+    <t>cg16269733</t>
+  </si>
+  <si>
+    <t>BCAN</t>
+  </si>
+  <si>
+    <t>CAPN2</t>
+  </si>
+  <si>
+    <t>cg06756211</t>
+  </si>
+  <si>
+    <t>cg19598416</t>
+  </si>
+  <si>
+    <t>NRCAM</t>
+  </si>
+  <si>
+    <t>cg25311470</t>
+  </si>
+  <si>
+    <t>ANXA1</t>
+  </si>
+  <si>
+    <t>cg13591783</t>
+  </si>
+  <si>
+    <t>cg18902090</t>
+  </si>
+  <si>
+    <t>cg08550421</t>
+  </si>
+  <si>
+    <t>PCDHA*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +91,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -492,6 +490,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -501,7 +502,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -512,10 +516,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -526,7 +530,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -537,10 +544,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -551,10 +558,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -565,7 +572,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -574,34 +581,6 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>begins</t>
   </si>
@@ -36,50 +36,104 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg25773262</t>
-  </si>
-  <si>
-    <t>cg16269733</t>
-  </si>
-  <si>
-    <t>BCAN</t>
-  </si>
-  <si>
-    <t>CAPN2</t>
-  </si>
-  <si>
-    <t>cg06756211</t>
-  </si>
-  <si>
-    <t>cg19598416</t>
-  </si>
-  <si>
-    <t>NRCAM</t>
-  </si>
-  <si>
-    <t>cg25311470</t>
-  </si>
-  <si>
-    <t>ANXA1</t>
-  </si>
-  <si>
-    <t>cg13591783</t>
-  </si>
-  <si>
-    <t>cg18902090</t>
-  </si>
-  <si>
-    <t>cg08550421</t>
-  </si>
-  <si>
-    <t>PCDHA*</t>
+    <t>DAAM2</t>
+  </si>
+  <si>
+    <t>cg01456151</t>
+  </si>
+  <si>
+    <t>cg05136848</t>
+  </si>
+  <si>
+    <t>cg26884773</t>
+  </si>
+  <si>
+    <t>cg25190001</t>
+  </si>
+  <si>
+    <t>cg25184724</t>
+  </si>
+  <si>
+    <t>cg26276395</t>
+  </si>
+  <si>
+    <t>cg12259903</t>
+  </si>
+  <si>
+    <t>cg01253725</t>
+  </si>
+  <si>
+    <t>cg04349021</t>
+  </si>
+  <si>
+    <t>cg18005828</t>
+  </si>
+  <si>
+    <t>cg11402700</t>
+  </si>
+  <si>
+    <t>cg14358699</t>
+  </si>
+  <si>
+    <t>cg25361106</t>
+  </si>
+  <si>
+    <t>cg02615214</t>
+  </si>
+  <si>
+    <t>cg24120669</t>
+  </si>
+  <si>
+    <t>cg25657834</t>
+  </si>
+  <si>
+    <t>cg21526572</t>
+  </si>
+  <si>
+    <t>cg13720022</t>
+  </si>
+  <si>
+    <t>cg23643987</t>
+  </si>
+  <si>
+    <t>cg02027429</t>
+  </si>
+  <si>
+    <t>cg01507753</t>
+  </si>
+  <si>
+    <t>WNT1</t>
+  </si>
+  <si>
+    <t>ANKRD33</t>
+  </si>
+  <si>
+    <t>CARKD</t>
+  </si>
+  <si>
+    <t>TLX2</t>
+  </si>
+  <si>
+    <t>PCDHB6</t>
+  </si>
+  <si>
+    <t>NTSR2</t>
+  </si>
+  <si>
+    <t>ECM2;CENPP</t>
+  </si>
+  <si>
+    <t>CNGA3</t>
+  </si>
+  <si>
+    <t>PLB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +145,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,13 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +518,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -488,9 +529,6 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -502,9 +540,6 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -516,10 +551,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -530,10 +565,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -544,10 +576,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -558,10 +587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -572,15 +598,182 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>begins</t>
   </si>
@@ -36,97 +36,49 @@
     <t>auto</t>
   </si>
   <si>
-    <t>DAAM2</t>
-  </si>
-  <si>
-    <t>cg01456151</t>
-  </si>
-  <si>
-    <t>cg05136848</t>
-  </si>
-  <si>
-    <t>cg26884773</t>
-  </si>
-  <si>
-    <t>cg25190001</t>
-  </si>
-  <si>
-    <t>cg25184724</t>
-  </si>
-  <si>
-    <t>cg26276395</t>
-  </si>
-  <si>
-    <t>cg12259903</t>
-  </si>
-  <si>
-    <t>cg01253725</t>
-  </si>
-  <si>
-    <t>cg04349021</t>
-  </si>
-  <si>
-    <t>cg18005828</t>
-  </si>
-  <si>
-    <t>cg11402700</t>
-  </si>
-  <si>
-    <t>cg14358699</t>
-  </si>
-  <si>
-    <t>cg25361106</t>
-  </si>
-  <si>
-    <t>cg02615214</t>
-  </si>
-  <si>
-    <t>cg24120669</t>
-  </si>
-  <si>
-    <t>cg25657834</t>
-  </si>
-  <si>
-    <t>cg21526572</t>
-  </si>
-  <si>
-    <t>cg13720022</t>
-  </si>
-  <si>
-    <t>cg23643987</t>
-  </si>
-  <si>
-    <t>cg02027429</t>
-  </si>
-  <si>
-    <t>cg01507753</t>
-  </si>
-  <si>
-    <t>WNT1</t>
-  </si>
-  <si>
-    <t>ANKRD33</t>
-  </si>
-  <si>
-    <t>CARKD</t>
-  </si>
-  <si>
-    <t>TLX2</t>
-  </si>
-  <si>
-    <t>PCDHB6</t>
-  </si>
-  <si>
-    <t>NTSR2</t>
-  </si>
-  <si>
-    <t>ECM2;CENPP</t>
-  </si>
-  <si>
-    <t>CNGA3</t>
-  </si>
-  <si>
-    <t>PLB1</t>
+    <t>cg01620164</t>
+  </si>
+  <si>
+    <t>cg27615582</t>
+  </si>
+  <si>
+    <t>cg23928726</t>
+  </si>
+  <si>
+    <t>cg05928806</t>
+  </si>
+  <si>
+    <t>cg17077610</t>
+  </si>
+  <si>
+    <t>cg15772157</t>
+  </si>
+  <si>
+    <t>cg24613050</t>
+  </si>
+  <si>
+    <t>cg03890691</t>
+  </si>
+  <si>
+    <t>cg23256579</t>
+  </si>
+  <si>
+    <t>cg23626733</t>
+  </si>
+  <si>
+    <t>FIGN</t>
+  </si>
+  <si>
+    <t>PRRT4</t>
+  </si>
+  <si>
+    <t>DOC2A</t>
+  </si>
+  <si>
+    <t>PEX10</t>
+  </si>
+  <si>
+    <t>PRR4</t>
   </si>
 </sst>
 </file>
@@ -494,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +470,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -529,7 +484,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -540,7 +495,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -551,10 +506,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -565,7 +517,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -576,7 +531,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -587,7 +545,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -601,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -612,10 +573,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -626,154 +587,15 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>begins</t>
   </si>
@@ -36,49 +36,55 @@
     <t>auto</t>
   </si>
   <si>
+    <t>cg14348741</t>
+  </si>
+  <si>
+    <t>cg26584545</t>
+  </si>
+  <si>
     <t>cg01620164</t>
   </si>
   <si>
-    <t>cg27615582</t>
-  </si>
-  <si>
-    <t>cg23928726</t>
-  </si>
-  <si>
-    <t>cg05928806</t>
-  </si>
-  <si>
-    <t>cg17077610</t>
-  </si>
-  <si>
-    <t>cg15772157</t>
-  </si>
-  <si>
-    <t>cg24613050</t>
-  </si>
-  <si>
-    <t>cg03890691</t>
-  </si>
-  <si>
-    <t>cg23256579</t>
-  </si>
-  <si>
-    <t>cg23626733</t>
-  </si>
-  <si>
-    <t>FIGN</t>
-  </si>
-  <si>
-    <t>PRRT4</t>
-  </si>
-  <si>
-    <t>DOC2A</t>
-  </si>
-  <si>
-    <t>PEX10</t>
-  </si>
-  <si>
-    <t>PRR4</t>
+    <t>cg25282715</t>
+  </si>
+  <si>
+    <t>cg15634877</t>
+  </si>
+  <si>
+    <t>cg21449170</t>
+  </si>
+  <si>
+    <t>cg21529533</t>
+  </si>
+  <si>
+    <t>cg26682094</t>
+  </si>
+  <si>
+    <t>cg04194272</t>
+  </si>
+  <si>
+    <t>cg04832177</t>
+  </si>
+  <si>
+    <t>cg26522743</t>
+  </si>
+  <si>
+    <t>cg17774851</t>
+  </si>
+  <si>
+    <t>cg27143204</t>
+  </si>
+  <si>
+    <t>cg06158650</t>
+  </si>
+  <si>
+    <t>cg27537164</t>
+  </si>
+  <si>
+    <t>cg19481686</t>
+  </si>
+  <si>
+    <t>cg07613182</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,10 +476,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -484,7 +487,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -495,7 +498,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -506,7 +509,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -517,10 +520,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -531,10 +531,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -545,10 +542,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -559,10 +553,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -575,9 +566,6 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -587,15 +575,89 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>begins</t>
   </si>
@@ -36,55 +36,58 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg14348741</t>
-  </si>
-  <si>
-    <t>cg26584545</t>
-  </si>
-  <si>
-    <t>cg01620164</t>
-  </si>
-  <si>
-    <t>cg25282715</t>
+    <t>cg03076319</t>
+  </si>
+  <si>
+    <t>cg10001590</t>
+  </si>
+  <si>
+    <t>cg18157012</t>
+  </si>
+  <si>
+    <t>cg23713156</t>
+  </si>
+  <si>
+    <t>cg12614148</t>
+  </si>
+  <si>
+    <t>SLIT3</t>
+  </si>
+  <si>
+    <t>cg16910042</t>
+  </si>
+  <si>
+    <t>cg08464177</t>
+  </si>
+  <si>
+    <t>BAI1</t>
   </si>
   <si>
     <t>cg15634877</t>
   </si>
   <si>
-    <t>cg21449170</t>
-  </si>
-  <si>
-    <t>cg21529533</t>
-  </si>
-  <si>
-    <t>cg26682094</t>
-  </si>
-  <si>
-    <t>cg04194272</t>
-  </si>
-  <si>
-    <t>cg04832177</t>
-  </si>
-  <si>
-    <t>cg26522743</t>
-  </si>
-  <si>
-    <t>cg17774851</t>
-  </si>
-  <si>
-    <t>cg27143204</t>
-  </si>
-  <si>
-    <t>cg06158650</t>
-  </si>
-  <si>
-    <t>cg27537164</t>
-  </si>
-  <si>
-    <t>cg19481686</t>
-  </si>
-  <si>
-    <t>cg07613182</t>
+    <t>cg14030346</t>
+  </si>
+  <si>
+    <t>cg11537828</t>
+  </si>
+  <si>
+    <t>SPEG</t>
+  </si>
+  <si>
+    <t>CNPY1</t>
+  </si>
+  <si>
+    <t>MLPH</t>
+  </si>
+  <si>
+    <t>PTPRN2</t>
+  </si>
+  <si>
+    <t>WDR45L</t>
+  </si>
+  <si>
+    <t>CADM1</t>
   </si>
 </sst>
 </file>
@@ -452,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -476,7 +479,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -487,7 +493,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -498,7 +504,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -509,7 +518,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -520,7 +532,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -531,7 +546,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -542,6 +557,9 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
@@ -555,6 +573,9 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -564,7 +585,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -575,7 +599,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -584,84 +611,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A30:C44">
+    <sortCondition descending="1" ref="B30:B44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>begins</t>
   </si>
@@ -36,25 +36,34 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg03076319</t>
-  </si>
-  <si>
-    <t>cg10001590</t>
-  </si>
-  <si>
-    <t>cg18157012</t>
-  </si>
-  <si>
-    <t>cg23713156</t>
-  </si>
-  <si>
-    <t>cg12614148</t>
-  </si>
-  <si>
-    <t>SLIT3</t>
-  </si>
-  <si>
-    <t>cg16910042</t>
+    <t>cg06904667</t>
+  </si>
+  <si>
+    <t>cg04202002</t>
+  </si>
+  <si>
+    <t>cg16786971</t>
+  </si>
+  <si>
+    <t>cg15122985</t>
+  </si>
+  <si>
+    <t>cg14506657</t>
+  </si>
+  <si>
+    <t>cg24482850</t>
+  </si>
+  <si>
+    <t>cg20403557</t>
+  </si>
+  <si>
+    <t>cg10317815</t>
+  </si>
+  <si>
+    <t>cg15634877</t>
+  </si>
+  <si>
+    <t>SPEG</t>
   </si>
   <si>
     <t>cg08464177</t>
@@ -63,31 +72,22 @@
     <t>BAI1</t>
   </si>
   <si>
-    <t>cg15634877</t>
-  </si>
-  <si>
-    <t>cg14030346</t>
-  </si>
-  <si>
-    <t>cg11537828</t>
-  </si>
-  <si>
-    <t>SPEG</t>
-  </si>
-  <si>
-    <t>CNPY1</t>
-  </si>
-  <si>
-    <t>MLPH</t>
-  </si>
-  <si>
-    <t>PTPRN2</t>
-  </si>
-  <si>
-    <t>WDR45L</t>
-  </si>
-  <si>
-    <t>CADM1</t>
+    <t>TCEA2</t>
+  </si>
+  <si>
+    <t>NUAK2</t>
+  </si>
+  <si>
+    <t>LVRN</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>reverses</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,13 +142,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,13 +490,16 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -490,10 +507,13 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -501,13 +521,16 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -515,13 +538,13 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -529,13 +552,16 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -543,8 +569,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -554,13 +583,16 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -568,13 +600,16 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -582,13 +617,13 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -596,19 +631,22 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>begins</t>
   </si>
@@ -36,58 +36,64 @@
     <t>auto</t>
   </si>
   <si>
-    <t>cg06904667</t>
-  </si>
-  <si>
-    <t>cg04202002</t>
-  </si>
-  <si>
-    <t>cg16786971</t>
-  </si>
-  <si>
-    <t>cg15122985</t>
-  </si>
-  <si>
-    <t>cg14506657</t>
-  </si>
-  <si>
-    <t>cg24482850</t>
-  </si>
-  <si>
-    <t>cg20403557</t>
-  </si>
-  <si>
-    <t>cg10317815</t>
-  </si>
-  <si>
-    <t>cg15634877</t>
-  </si>
-  <si>
-    <t>SPEG</t>
-  </si>
-  <si>
-    <t>cg08464177</t>
-  </si>
-  <si>
-    <t>BAI1</t>
-  </si>
-  <si>
-    <t>TCEA2</t>
-  </si>
-  <si>
-    <t>NUAK2</t>
-  </si>
-  <si>
-    <t>LVRN</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>reverses</t>
+  </si>
+  <si>
+    <t>cg08369368</t>
+  </si>
+  <si>
+    <t>cg03890691</t>
+  </si>
+  <si>
+    <t>cg15772157</t>
+  </si>
+  <si>
+    <t>cg24789467</t>
+  </si>
+  <si>
+    <t>cg02716826</t>
+  </si>
+  <si>
+    <t>cg27151362</t>
+  </si>
+  <si>
+    <t>cg26612727</t>
+  </si>
+  <si>
+    <t>cg23960707</t>
+  </si>
+  <si>
+    <t>cg26276120</t>
+  </si>
+  <si>
+    <t>cg18310639</t>
+  </si>
+  <si>
+    <t>DOC2A</t>
+  </si>
+  <si>
+    <t>SHROOM1</t>
+  </si>
+  <si>
+    <t>SUGT1P1;AQP3</t>
+  </si>
+  <si>
+    <t>NSD1</t>
+  </si>
+  <si>
+    <t>ZPBP2</t>
+  </si>
+  <si>
+    <t>SFRS1</t>
+  </si>
+  <si>
+    <t>TPI1</t>
+  </si>
+  <si>
+    <t>CAPN2</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,15 +497,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -508,12 +514,15 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -522,15 +531,12 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -539,12 +545,15 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -553,15 +562,15 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -570,12 +579,15 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -584,15 +596,15 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -601,15 +613,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -618,12 +630,15 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -632,12 +647,15 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -646,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>begins</t>
   </si>
@@ -36,64 +36,55 @@
     <t>auto</t>
   </si>
   <si>
+    <t>reverses</t>
+  </si>
+  <si>
+    <t>cg15634877</t>
+  </si>
+  <si>
+    <t>cg01242956</t>
+  </si>
+  <si>
+    <t>cg13996453</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>SPEG</t>
+  </si>
+  <si>
+    <t>cg16786971</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>reverses</t>
-  </si>
-  <si>
-    <t>cg08369368</t>
-  </si>
-  <si>
-    <t>cg03890691</t>
-  </si>
-  <si>
-    <t>cg15772157</t>
-  </si>
-  <si>
-    <t>cg24789467</t>
-  </si>
-  <si>
-    <t>cg02716826</t>
-  </si>
-  <si>
-    <t>cg27151362</t>
-  </si>
-  <si>
-    <t>cg26612727</t>
-  </si>
-  <si>
-    <t>cg23960707</t>
-  </si>
-  <si>
-    <t>cg26276120</t>
-  </si>
-  <si>
-    <t>cg18310639</t>
-  </si>
-  <si>
-    <t>DOC2A</t>
-  </si>
-  <si>
-    <t>SHROOM1</t>
-  </si>
-  <si>
-    <t>SUGT1P1;AQP3</t>
-  </si>
-  <si>
-    <t>NSD1</t>
-  </si>
-  <si>
-    <t>ZPBP2</t>
-  </si>
-  <si>
-    <t>SFRS1</t>
-  </si>
-  <si>
-    <t>TPI1</t>
-  </si>
-  <si>
-    <t>CAPN2</t>
+    <t>cg15122985</t>
+  </si>
+  <si>
+    <t>TCEA2</t>
+  </si>
+  <si>
+    <t>cg14506657</t>
+  </si>
+  <si>
+    <t>cg24482850</t>
+  </si>
+  <si>
+    <t>NUAK2</t>
+  </si>
+  <si>
+    <t>cg20403557</t>
+  </si>
+  <si>
+    <t>LVRN</t>
+  </si>
+  <si>
+    <t>cg06904667</t>
+  </si>
+  <si>
+    <t>cg04202002</t>
   </si>
 </sst>
 </file>
@@ -478,7 +469,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,15 +488,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -514,15 +505,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -531,29 +519,26 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -562,15 +547,15 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -579,32 +564,29 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -613,15 +595,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -630,15 +612,12 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -647,15 +626,12 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -664,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/illumina450k/betas/plot/scatter_comparison_rows.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\dna-methylation\dna-methylation\scripts\develop\illumina450k\betas\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574F4C0-300A-4C76-89D9-DC198C6A1DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16695" yWindow="8865" windowWidth="16230" windowHeight="9045"/>
+    <workbookView xWindow="8880" yWindow="4275" windowWidth="23325" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>begins</t>
   </si>
@@ -39,37 +40,34 @@
     <t>reverses</t>
   </si>
   <si>
-    <t>cg14506657</t>
-  </si>
-  <si>
-    <t>cg20403557</t>
-  </si>
-  <si>
-    <t>LVRN</t>
-  </si>
-  <si>
-    <t>cg24482850</t>
-  </si>
-  <si>
-    <t>NUAK2</t>
-  </si>
-  <si>
-    <t>cg15122985</t>
-  </si>
-  <si>
-    <t>TCEA2</t>
-  </si>
-  <si>
-    <t>cg16786971</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>cg01620164</t>
+  </si>
+  <si>
+    <t>FIGN</t>
+  </si>
+  <si>
+    <t>cg10501210</t>
+  </si>
+  <si>
+    <t>cg27436995</t>
+  </si>
+  <si>
+    <t>FBXL16</t>
+  </si>
+  <si>
+    <t>cg27288829</t>
+  </si>
+  <si>
+    <t>RAX2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,6 +232,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -269,6 +284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +504,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -481,15 +516,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -498,15 +530,15 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -515,43 +547,29 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>-0.1</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A30:C44">
-    <sortCondition descending="1" ref="B30:B44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:C43">
+    <sortCondition descending="1" ref="B29:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
